--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Password</t>
     <phoneticPr fontId="1"/>
